--- a/eval/METRICS.xlsx
+++ b/eval/METRICS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacqu\Documents\GitHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacqu\Documents\GitHub\graph2smiles\eval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28D08DA-C6A0-4F27-8CCC-F34AF83C537D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA362770-9857-4700-BEB8-9E57257110B8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -688,7 +688,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -729,6 +729,12 @@
     <font>
       <sz val="11"/>
       <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -864,7 +870,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -892,6 +898,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -904,16 +920,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1198,7 +1205,7 @@
   <dimension ref="A1:T43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1210,64 +1217,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="13" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="13" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="13" t="s">
+      <c r="J1" s="18"/>
+      <c r="K1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="15" t="s">
+      <c r="L1" s="18"/>
+      <c r="M1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="T1" s="16" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1292,14 +1299,14 @@
       <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="19"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="16"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1808,16 +1815,16 @@
       <c r="D12" t="s">
         <v>147</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="21" t="s">
         <v>150</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="21" t="s">
         <v>153</v>
       </c>
       <c r="I12" t="s">
@@ -1863,7 +1870,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="13" t="s">
         <v>215</v>
       </c>
     </row>
@@ -2086,6 +2093,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
@@ -2096,12 +2109,6 @@
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/eval/METRICS.xlsx
+++ b/eval/METRICS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacqu\Documents\GitHub\graph2smiles\eval\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA362770-9857-4700-BEB8-9E57257110B8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD83B276-03F5-44CE-BD7B-909D0AE48CDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -899,15 +899,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -920,7 +912,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1205,7 +1205,7 @@
   <dimension ref="A1:T43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="G25" sqref="G25:G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,64 +1217,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="17" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="17" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="17" t="s">
+      <c r="J1" s="16"/>
+      <c r="K1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="18"/>
-      <c r="M1" s="19" t="s">
+      <c r="L1" s="16"/>
+      <c r="M1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="19" t="s">
+      <c r="N1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="19" t="s">
+      <c r="O1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="19" t="s">
         <v>211</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="T1" s="21" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1299,14 +1299,14 @@
       <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="16"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="21"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1815,16 +1815,16 @@
       <c r="D12" t="s">
         <v>147</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="G12" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="14" t="s">
         <v>153</v>
       </c>
       <c r="I12" t="s">
@@ -2093,12 +2093,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:F1"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
@@ -2109,6 +2103,12 @@
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
